--- a/market/project1/100.Project/01.semiProject/file/seoul_sgg_stat.xlsx
+++ b/market/project1/100.Project/01.semiProject/file/seoul_sgg_stat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>주민등록인구</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>종사자수</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>사업체수</t>
         </is>
@@ -489,9 +494,12 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
+        <v>312858</v>
+      </c>
+      <c r="G2" t="n">
         <v>79097</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>25391</v>
       </c>
     </row>
@@ -514,9 +522,12 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
+        <v>468766</v>
+      </c>
+      <c r="G3" t="n">
         <v>109031</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>36509</v>
       </c>
     </row>
@@ -539,9 +550,12 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
+        <v>354884</v>
+      </c>
+      <c r="G4" t="n">
         <v>146383</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>42813</v>
       </c>
     </row>
@@ -564,9 +578,12 @@
         <v>11</v>
       </c>
       <c r="F5" t="n">
+        <v>390377</v>
+      </c>
+      <c r="G5" t="n">
         <v>109281</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>27915</v>
       </c>
     </row>
@@ -589,9 +606,12 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
+        <v>242467</v>
+      </c>
+      <c r="G6" t="n">
         <v>255449</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>47964</v>
       </c>
     </row>
@@ -614,9 +634,12 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
+        <v>417983</v>
+      </c>
+      <c r="G7" t="n">
         <v>240689</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>52791</v>
       </c>
     </row>
@@ -636,12 +659,15 @@
         <v>126.9861493</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
+        <v>152212</v>
+      </c>
+      <c r="G8" t="n">
         <v>275063</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>48361</v>
       </c>
     </row>
@@ -664,9 +690,12 @@
         <v>6</v>
       </c>
       <c r="F9" t="n">
+        <v>296934</v>
+      </c>
+      <c r="G9" t="n">
         <v>80222</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>26385</v>
       </c>
     </row>
@@ -689,9 +718,12 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
+        <v>389928</v>
+      </c>
+      <c r="G10" t="n">
         <v>113144</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>39310</v>
       </c>
     </row>
@@ -714,9 +746,12 @@
         <v>91</v>
       </c>
       <c r="F11" t="n">
+        <v>537817</v>
+      </c>
+      <c r="G11" t="n">
         <v>801419</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>110007</v>
       </c>
     </row>
@@ -739,9 +774,12 @@
         <v>27</v>
       </c>
       <c r="F12" t="n">
+        <v>573711</v>
+      </c>
+      <c r="G12" t="n">
         <v>290473</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>58806</v>
       </c>
     </row>
@@ -764,9 +802,12 @@
         <v>53</v>
       </c>
       <c r="F13" t="n">
+        <v>131390</v>
+      </c>
+      <c r="G13" t="n">
         <v>386564</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>70308</v>
       </c>
     </row>
@@ -789,9 +830,12 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
+        <v>464027</v>
+      </c>
+      <c r="G14" t="n">
         <v>157465</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>41660</v>
       </c>
     </row>
@@ -814,9 +858,12 @@
         <v>19</v>
       </c>
       <c r="F15" t="n">
+        <v>350925</v>
+      </c>
+      <c r="G15" t="n">
         <v>129707</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>33706</v>
       </c>
     </row>
@@ -839,9 +886,12 @@
         <v>36</v>
       </c>
       <c r="F16" t="n">
+        <v>376542</v>
+      </c>
+      <c r="G16" t="n">
         <v>279788</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>56782</v>
       </c>
     </row>
@@ -864,9 +914,12 @@
         <v>47</v>
       </c>
       <c r="F17" t="n">
+        <v>408979</v>
+      </c>
+      <c r="G17" t="n">
         <v>487976</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>71958</v>
       </c>
     </row>
@@ -889,9 +942,12 @@
         <v>15</v>
       </c>
       <c r="F18" t="n">
+        <v>441855</v>
+      </c>
+      <c r="G18" t="n">
         <v>124004</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>34712</v>
       </c>
     </row>
@@ -914,9 +970,12 @@
         <v>14</v>
       </c>
       <c r="F19" t="n">
+        <v>506989</v>
+      </c>
+      <c r="G19" t="n">
         <v>133398</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>37909</v>
       </c>
     </row>
@@ -939,9 +998,12 @@
         <v>36</v>
       </c>
       <c r="F20" t="n">
+        <v>663704</v>
+      </c>
+      <c r="G20" t="n">
         <v>400781</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>74531</v>
       </c>
     </row>
@@ -964,9 +1026,12 @@
         <v>22</v>
       </c>
       <c r="F21" t="n">
+        <v>321966</v>
+      </c>
+      <c r="G21" t="n">
         <v>118256</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>28522</v>
       </c>
     </row>
@@ -989,9 +1054,12 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
+        <v>442345</v>
+      </c>
+      <c r="G22" t="n">
         <v>133776</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>37929</v>
       </c>
     </row>
@@ -1014,9 +1082,12 @@
         <v>41</v>
       </c>
       <c r="F23" t="n">
+        <v>398999</v>
+      </c>
+      <c r="G23" t="n">
         <v>435017</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>74562</v>
       </c>
     </row>
@@ -1039,9 +1110,12 @@
         <v>12</v>
       </c>
       <c r="F24" t="n">
+        <v>502628</v>
+      </c>
+      <c r="G24" t="n">
         <v>128417</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>37915</v>
       </c>
     </row>
@@ -1064,9 +1138,12 @@
         <v>14</v>
       </c>
       <c r="F25" t="n">
+        <v>287240</v>
+      </c>
+      <c r="G25" t="n">
         <v>203221</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>41665</v>
       </c>
     </row>
@@ -1089,9 +1166,12 @@
         <v>24</v>
       </c>
       <c r="F26" t="n">
+        <v>232482</v>
+      </c>
+      <c r="G26" t="n">
         <v>152605</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>29680</v>
       </c>
     </row>
